--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2140270.769613079</v>
+        <v>-2140917.742154263</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.25199763280246</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748822</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806991</v>
+        <v>60.24410049029187</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362022</v>
+        <v>0.4251038644362026</v>
       </c>
       <c r="T13" t="n">
         <v>9.028675106938108</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>68.39702598806991</v>
+        <v>24.68690330538637</v>
       </c>
       <c r="F14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417384</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748822</v>
+        <v>32.99210285748821</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.25199763280369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362022</v>
+        <v>0.4251038644362026</v>
       </c>
       <c r="T16" t="n">
         <v>9.028675106938108</v>
@@ -1850,13 +1850,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473288</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F17" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521446</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998646</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H29" t="n">
         <v>112.566723118609</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V35" t="n">
         <v>85.39850503054896</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.0869374536642</v>
+        <v>212.7354771944086</v>
       </c>
       <c r="C11" t="n">
-        <v>74.55966711750006</v>
+        <v>212.7354771944086</v>
       </c>
       <c r="D11" t="n">
-        <v>74.55966711750006</v>
+        <v>143.6475721559543</v>
       </c>
       <c r="E11" t="n">
-        <v>74.55966711750006</v>
+        <v>143.6475721559543</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>143.6475721559543</v>
       </c>
       <c r="G11" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711749994</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439194</v>
+        <v>35.56706215439193</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439194</v>
+        <v>35.56706215439193</v>
       </c>
       <c r="K11" t="n">
-        <v>95.48833333466594</v>
+        <v>35.56706215439193</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7742046860292</v>
+        <v>93.85293350575512</v>
       </c>
       <c r="M11" t="n">
-        <v>221.4872604142184</v>
+        <v>93.85293350575512</v>
       </c>
       <c r="N11" t="n">
-        <v>221.4872604142184</v>
+        <v>109.4121732772757</v>
       </c>
       <c r="O11" t="n">
-        <v>221.4872604142184</v>
+        <v>109.4121732772757</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5881039522797</v>
+        <v>165.8971027405225</v>
       </c>
       <c r="Q11" t="n">
-        <v>273.5881039522797</v>
+        <v>215.2056264681699</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5881039522797</v>
+        <v>251.0794834347995</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522792</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522792</v>
       </c>
       <c r="U11" t="n">
-        <v>240.2627475305731</v>
+        <v>273.5881039522792</v>
       </c>
       <c r="V11" t="n">
-        <v>171.1748424921187</v>
+        <v>212.7354771944086</v>
       </c>
       <c r="W11" t="n">
-        <v>171.1748424921187</v>
+        <v>212.7354771944086</v>
       </c>
       <c r="X11" t="n">
-        <v>171.1748424921187</v>
+        <v>212.7354771944086</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.1748424921187</v>
+        <v>212.7354771944086</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="F12" t="n">
-        <v>57.17833035452082</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="G12" t="n">
-        <v>57.17833035452082</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="H12" t="n">
-        <v>57.17833035452082</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="I12" t="n">
-        <v>57.17833035452082</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="J12" t="n">
         <v>57.17833035452082</v>
@@ -5154,16 +5154,16 @@
         <v>50.92431750291699</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711509</v>
+        <v>37.32966388711508</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045593</v>
+        <v>43.45443122367974</v>
       </c>
       <c r="C13" t="n">
-        <v>5.471762079045593</v>
+        <v>43.45443122367974</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471762079045593</v>
+        <v>43.45443122367974</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045593</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045593</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045593</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="H13" t="n">
-        <v>5.471762079045593</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="I13" t="n">
-        <v>5.471762079045593</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="J13" t="n">
-        <v>73.18481780723481</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="K13" t="n">
-        <v>140.897873535424</v>
+        <v>111.1674869518689</v>
       </c>
       <c r="L13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="M13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="N13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180214</v>
+        <v>141.0223128486165</v>
       </c>
       <c r="R13" t="n">
         <v>194.5252895180214</v>
@@ -5236,13 +5236,13 @@
         <v>81.86725582395397</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617185</v>
+        <v>13.54144478617184</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537494</v>
+        <v>5.773428652537485</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559545</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559545</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559545</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="E14" t="n">
-        <v>74.55966711750006</v>
+        <v>143.6475721559547</v>
       </c>
       <c r="F14" t="n">
-        <v>5.471762079045593</v>
+        <v>143.6475721559547</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750014</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I14" t="n">
-        <v>5.471762079045593</v>
+        <v>35.56706215439194</v>
       </c>
       <c r="J14" t="n">
-        <v>73.18481780723481</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="K14" t="n">
-        <v>133.1060889875088</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="L14" t="n">
-        <v>147.1703713227847</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="M14" t="n">
-        <v>214.8834270509739</v>
+        <v>170.9931736107705</v>
       </c>
       <c r="N14" t="n">
-        <v>214.8834270509739</v>
+        <v>238.7062293389598</v>
       </c>
       <c r="O14" t="n">
-        <v>214.8834270509739</v>
+        <v>238.7062293389598</v>
       </c>
       <c r="P14" t="n">
-        <v>271.3683565142206</v>
+        <v>238.7062293389598</v>
       </c>
       <c r="Q14" t="n">
-        <v>273.5881039522797</v>
+        <v>238.7062293389598</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811512</v>
       </c>
       <c r="U14" t="n">
-        <v>240.2627475305744</v>
+        <v>237.671743159446</v>
       </c>
       <c r="V14" t="n">
-        <v>240.2627475305744</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="W14" t="n">
-        <v>240.2627475305744</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="X14" t="n">
-        <v>171.1748424921199</v>
+        <v>168.5838381209914</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.6475721559545</v>
+        <v>168.5838381209914</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452082</v>
+        <v>57.17833035452084</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291699</v>
+        <v>50.92431750291701</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711509</v>
+        <v>37.3296638871151</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G16" t="n">
-        <v>5.471762079045593</v>
+        <v>55.72441237159528</v>
       </c>
       <c r="H16" t="n">
-        <v>5.471762079045593</v>
+        <v>55.72441237159528</v>
       </c>
       <c r="I16" t="n">
-        <v>5.471762079045593</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="J16" t="n">
-        <v>73.18481780723481</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="K16" t="n">
-        <v>73.18481780723481</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898322</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="M16" t="n">
-        <v>126.8122337898322</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898322</v>
+        <v>59.09917806164285</v>
       </c>
       <c r="O16" t="n">
-        <v>194.5252895180214</v>
+        <v>126.8122337898321</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180214</v>
+        <v>126.8122337898321</v>
       </c>
       <c r="Q16" t="n">
         <v>194.5252895180214</v>
@@ -5473,13 +5473,13 @@
         <v>81.86725582395397</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617185</v>
+        <v>13.54144478617186</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537494</v>
+        <v>5.7734286525375</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278997</v>
       </c>
       <c r="C17" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436693</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345341</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832887</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673677</v>
+        <v>69.99619532673698</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H17" t="n">
-        <v>5.471762079045593</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="I17" t="n">
-        <v>5.471762079045593</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="J17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="K17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="L17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="M17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="N17" t="n">
-        <v>73.18481780723481</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="O17" t="n">
-        <v>73.18481780723481</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="P17" t="n">
-        <v>73.18481780723481</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1619924959012</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="R17" t="n">
-        <v>138.1619924959012</v>
+        <v>138.1619924959014</v>
       </c>
       <c r="S17" t="n">
-        <v>138.1619924959012</v>
+        <v>138.1619924959014</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8750482240904</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X17" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152954</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278999</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436694</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345343</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832886</v>
+        <v>127.333312983289</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N20" t="n">
-        <v>48.67201024445711</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67201024445711</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P20" t="n">
-        <v>48.67201024445711</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.67201024445711</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="R20" t="n">
-        <v>48.67201024445711</v>
+        <v>140.8978735354242</v>
       </c>
       <c r="S20" t="n">
-        <v>116.3850659726463</v>
+        <v>184.0981217008357</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008356</v>
+        <v>184.0981217008357</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290248</v>
+        <v>251.811177429025</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522801</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152955</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994559</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278996</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436693</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345342</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832889</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H23" t="n">
-        <v>5.471762079045594</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="I23" t="n">
-        <v>5.471762079045594</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="J23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="K23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="L23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="M23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="N23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="O23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="P23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.18481780723482</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="R23" t="n">
-        <v>138.1619924959012</v>
+        <v>48.6720102444572</v>
       </c>
       <c r="S23" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8750482240905</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290251</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522797</v>
+        <v>273.58810395228</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522797</v>
+        <v>273.58810395228</v>
       </c>
       <c r="X23" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152954</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.4717620790456</v>
       </c>
     </row>
     <row r="26">
@@ -6224,31 +6224,31 @@
         <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>148.7795367731729</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K26" t="n">
-        <v>211.2402513375901</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="L26" t="n">
-        <v>483.2845854696859</v>
+        <v>383.7067264898465</v>
       </c>
       <c r="M26" t="n">
-        <v>777.8446509483898</v>
+        <v>807.9187314051899</v>
       </c>
       <c r="N26" t="n">
-        <v>1206.819651396453</v>
+        <v>883.9723444757345</v>
       </c>
       <c r="O26" t="n">
-        <v>1635.794651844515</v>
+        <v>1312.947344923797</v>
       </c>
       <c r="P26" t="n">
-        <v>1694.819024691905</v>
+        <v>1371.971717771187</v>
       </c>
       <c r="Q26" t="n">
-        <v>1694.819024691905</v>
+        <v>1642.419199266416</v>
       </c>
       <c r="R26" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6297,16 +6297,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="H27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L27" t="n">
         <v>78.59820166294284</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="D28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.37851974815732</v>
       </c>
       <c r="E28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.37851974815732</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>149.4860556570052</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>149.4860556570052</v>
       </c>
       <c r="H28" t="n">
-        <v>95.21067851167777</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="I28" t="n">
-        <v>95.21067851167777</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="J28" t="n">
-        <v>95.21067851167777</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="K28" t="n">
-        <v>95.21067851167777</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="L28" t="n">
-        <v>96.91139119412402</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M28" t="n">
-        <v>96.91139119412402</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N28" t="n">
-        <v>96.91139119412402</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.020368992372</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847821</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522874</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776825</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977711</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J29" t="n">
-        <v>290.2466682948505</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K29" t="n">
-        <v>621.7413564796274</v>
+        <v>544.9803681208614</v>
       </c>
       <c r="L29" t="n">
-        <v>682.5666712151337</v>
+        <v>962.5805858562378</v>
       </c>
       <c r="M29" t="n">
-        <v>756.466537146911</v>
+        <v>1125.576835750099</v>
       </c>
       <c r="N29" t="n">
-        <v>1185.441537594974</v>
+        <v>1201.630448820644</v>
       </c>
       <c r="O29" t="n">
-        <v>1256.448569320772</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1427.991924996966</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1694.819024691905</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6500,7 +6500,7 @@
         <v>1593.893828310191</v>
       </c>
       <c r="W29" t="n">
-        <v>1463.070597286831</v>
+        <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
         <v>1311.710515626487</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="C30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="D30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="E30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="F30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="G30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="H30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="J30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q30" t="n">
         <v>78.59820166294284</v>
@@ -6582,10 +6582,10 @@
         <v>34.66464650085356</v>
       </c>
       <c r="X30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301439</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>75.18675902963091</v>
+        <v>179.5050037621559</v>
       </c>
       <c r="K31" t="n">
-        <v>75.18675902963091</v>
+        <v>179.5050037621559</v>
       </c>
       <c r="L31" t="n">
-        <v>193.2046737183677</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M31" t="n">
-        <v>193.2046737183677</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N31" t="n">
-        <v>193.2046737183677</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O31" t="n">
-        <v>193.2046737183677</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P31" t="n">
-        <v>193.2046737183677</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923731</v>
+        <v>980.0203689923725</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847831</v>
+        <v>832.5759473847825</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522878</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776828</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977715</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6698,31 +6698,31 @@
         <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>148.7795367731728</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K32" t="n">
-        <v>211.24025133759</v>
+        <v>719.0822431020283</v>
       </c>
       <c r="L32" t="n">
-        <v>272.0655660730964</v>
+        <v>1001.127811762915</v>
       </c>
       <c r="M32" t="n">
-        <v>589.9795989845396</v>
+        <v>1075.027677694693</v>
       </c>
       <c r="N32" t="n">
-        <v>1018.954599432602</v>
+        <v>1151.081290765237</v>
       </c>
       <c r="O32" t="n">
-        <v>1447.929599880665</v>
+        <v>1222.088322491035</v>
       </c>
       <c r="P32" t="n">
-        <v>1550.261367777269</v>
+        <v>1393.631678167229</v>
       </c>
       <c r="Q32" t="n">
-        <v>1602.10933488906</v>
+        <v>1627.157398790682</v>
       </c>
       <c r="R32" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="C33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="D33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="E33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="F33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="G33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="H33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="I33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="J33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="K33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="L33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="M33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294293</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294293</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="Q33" t="n">
         <v>78.59820166294293</v>
@@ -6819,10 +6819,10 @@
         <v>34.66464650085356</v>
       </c>
       <c r="X33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
     </row>
     <row r="34">
@@ -6835,49 +6835,49 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>87.80642620351753</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>205.8243408922543</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>205.8243408922543</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N34" t="n">
-        <v>205.8243408922543</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O34" t="n">
-        <v>205.8243408922543</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P34" t="n">
-        <v>205.8243408922543</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.8243408922543</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
         <v>210.0320876678296</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767111</v>
+        <v>840.4904359767106</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585573</v>
+        <v>715.3890428585569</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154987</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303299</v>
+        <v>459.3755726303295</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398546</v>
+        <v>293.5582524398542</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582396</v>
@@ -6935,28 +6935,28 @@
         <v>83.72603010379387</v>
       </c>
       <c r="J35" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>548.3665238589937</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L35" t="n">
-        <v>909.6284685788673</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M35" t="n">
-        <v>1099.42228871384</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N35" t="n">
-        <v>1197.374304006881</v>
+        <v>722.0395713125181</v>
       </c>
       <c r="O35" t="n">
-        <v>1290.279737955176</v>
+        <v>814.9450052608123</v>
       </c>
       <c r="P35" t="n">
-        <v>1317.052983409496</v>
+        <v>1038.141766452789</v>
       </c>
       <c r="Q35" t="n">
-        <v>1390.799352743783</v>
+        <v>1330.487650170514</v>
       </c>
       <c r="R35" t="n">
         <v>1390.799352743783</v>
@@ -6971,16 +6971,16 @@
         <v>1451.252897529258</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802862</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631954</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821905</v>
+        <v>982.49214658219</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P36" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q36" t="n">
         <v>36.11675336931268</v>
@@ -7093,16 +7093,16 @@
         <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N37" t="n">
         <v>125.8253588837063</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585564</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154979</v>
       </c>
       <c r="E38" t="n">
-        <v>459.375572630329</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F38" t="n">
         <v>293.5582524398537</v>
@@ -7172,28 +7172,28 @@
         <v>83.72603010379387</v>
       </c>
       <c r="J38" t="n">
-        <v>335.1178417063383</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K38" t="n">
-        <v>419.4769584932518</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L38" t="n">
-        <v>502.2006754512546</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M38" t="n">
-        <v>595.957046663029</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N38" t="n">
-        <v>595.957046663029</v>
+        <v>750.2147197651293</v>
       </c>
       <c r="O38" t="n">
-        <v>957.2189913829027</v>
+        <v>1108.156879865118</v>
       </c>
       <c r="P38" t="n">
-        <v>1038.141766452789</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743783</v>
@@ -7217,7 +7217,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821897</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="39">
@@ -7263,28 +7263,28 @@
         <v>29.19288442180797</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="V39" t="n">
         <v>36.11675336931268</v>
@@ -7321,40 +7321,40 @@
         <v>29.19288442180797</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180797</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837063</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837063</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837063</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837063</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837063</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="S40" t="n">
         <v>125.8253588837063</v>
@@ -7409,25 +7409,25 @@
         <v>83.72603010379387</v>
       </c>
       <c r="J41" t="n">
-        <v>187.10457913912</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="K41" t="n">
-        <v>548.0764496488621</v>
+        <v>394.2071752502586</v>
       </c>
       <c r="L41" t="n">
-        <v>630.8001666068649</v>
+        <v>476.9308922082614</v>
       </c>
       <c r="M41" t="n">
-        <v>726.5984347611385</v>
+        <v>838.192836928135</v>
       </c>
       <c r="N41" t="n">
-        <v>1082.913071818046</v>
+        <v>936.1448522211761</v>
       </c>
       <c r="O41" t="n">
-        <v>1175.81850576634</v>
+        <v>1029.05028616947</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.741280836227</v>
+        <v>1109.973061239357</v>
       </c>
       <c r="Q41" t="n">
         <v>1330.487650170514</v>
@@ -7503,19 +7503,19 @@
         <v>29.19288442180797</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T42" t="n">
         <v>36.11675336931268</v>
@@ -7546,31 +7546,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180797</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="I43" t="n">
-        <v>59.32845859233939</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="J43" t="n">
-        <v>59.32845859233939</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="K43" t="n">
-        <v>59.32845859233939</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="L43" t="n">
         <v>125.8253588837063</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767104</v>
+        <v>840.4904359767114</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585576</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154989</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303297</v>
       </c>
       <c r="F44" t="n">
         <v>293.5582524398544</v>
@@ -7646,28 +7646,28 @@
         <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4636959260336</v>
+        <v>722.4683988401608</v>
       </c>
       <c r="L44" t="n">
-        <v>354.1874128840363</v>
+        <v>821.501162469509</v>
       </c>
       <c r="M44" t="n">
-        <v>564.4499791644467</v>
+        <v>917.2994306237827</v>
       </c>
       <c r="N44" t="n">
-        <v>925.7119238843204</v>
+        <v>1015.251445916824</v>
       </c>
       <c r="O44" t="n">
-        <v>1249.564875100627</v>
+        <v>1108.156879865118</v>
       </c>
       <c r="P44" t="n">
-        <v>1330.487650170514</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743783</v>
@@ -7682,16 +7682,16 @@
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.511578802862</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631954</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821899</v>
+        <v>982.4921465821909</v>
       </c>
     </row>
     <row r="45">
@@ -7725,37 +7725,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U45" t="n">
         <v>36.11675336931268</v>
@@ -7786,28 +7786,28 @@
         <v>29.19288442180797</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6242676887366</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="J46" t="n">
-        <v>123.6242676887366</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="K46" t="n">
-        <v>123.6242676887366</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="L46" t="n">
         <v>125.8253588837063</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8766,31 +8766,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>28.908721877605</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>70.31899668803936</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>170.8856034654774</v>
+        <v>89.93983631645297</v>
       </c>
       <c r="R14" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>222.8890904514411</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>361.5838067901666</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>87.63123133691676</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.62804194329971</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10042,16 +10042,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>271.7514885054138</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>89.99634743644822</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10273,19 +10273,19 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>132.6405417388798</v>
       </c>
       <c r="M31" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O31" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>223.454801944829</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>400.3701890601144</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>361.5838067901666</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>264.7599617714831</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,16 +10425,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>279.6998261949092</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>281.351745214011</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>94.94500200070644</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>143.7110970930206</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175251</v>
+        <v>49.92526831175056</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>149.5083460274932</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>28.45974591172843</v>
       </c>
       <c r="O38" t="n">
-        <v>271.067182597555</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P39" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10990,13 +10990,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>268.1451278440404</v>
       </c>
       <c r="N41" t="n">
-        <v>260.9723452160268</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>148.2507268655255</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P42" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.47378451651056</v>
       </c>
       <c r="M44" t="n">
-        <v>115.6205031577139</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>265.9696256836693</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11370,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.63428202596921</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331389</v>
+        <v>165.2663860313838</v>
       </c>
       <c r="C11" t="n">
-        <v>121.2830740861289</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
-        <v>138.1547087945872</v>
+        <v>69.75768280651735</v>
       </c>
       <c r="E11" t="n">
         <v>164.6680117952762</v>
@@ -23270,10 +23270,10 @@
         <v>188.8438395205296</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676877</v>
+        <v>127.5622559676878</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460264</v>
+        <v>46.73479145795662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>2.565094327417384</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.99210285748821</v>
       </c>
       <c r="V11" t="n">
-        <v>41.68617157443819</v>
+        <v>49.83909707221622</v>
       </c>
       <c r="W11" t="n">
         <v>132.0800930405433</v>
@@ -23501,16 +23501,16 @@
         <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
-        <v>96.2709858072063</v>
+        <v>139.9811084898898</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4468135324597</v>
+        <v>188.8438395205296</v>
       </c>
       <c r="G14" t="n">
-        <v>195.9592819557576</v>
+        <v>127.5622559676876</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460264</v>
+        <v>46.73479145795643</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625081</v>
+        <v>41.68617157443812</v>
       </c>
       <c r="W14" t="n">
         <v>132.0800930405433</v>
       </c>
       <c r="X14" t="n">
-        <v>84.01454918308823</v>
+        <v>152.4115751711581</v>
       </c>
       <c r="Y14" t="n">
-        <v>140.9850501584209</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>263950.8227706156</v>
       </c>
       <c r="C2" t="n">
-        <v>263950.8227706157</v>
+        <v>263950.8227706156</v>
       </c>
       <c r="D2" t="n">
-        <v>263950.8227706157</v>
+        <v>263950.8227706156</v>
       </c>
       <c r="E2" t="n">
         <v>227025.4226077805</v>
@@ -26326,7 +26326,7 @@
         <v>227025.4226077805</v>
       </c>
       <c r="G2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998544</v>
       </c>
       <c r="H2" t="n">
         <v>264523.8077998543</v>
@@ -26335,22 +26335,22 @@
         <v>264523.8077998543</v>
       </c>
       <c r="J2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998544</v>
       </c>
       <c r="K2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998544</v>
       </c>
       <c r="L2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998541</v>
       </c>
       <c r="M2" t="n">
+        <v>264523.8077998541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>264523.8077998541</v>
+      </c>
+      <c r="O2" t="n">
         <v>264523.8077998542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>264523.8077998543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>264523.8077998541</v>
       </c>
       <c r="P2" t="n">
         <v>264523.8077998541</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166624.8083432523</v>
+        <v>166624.8083432522</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26439,25 +26439,25 @@
         <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
+        <v>434774.7393444278</v>
+      </c>
+      <c r="K4" t="n">
         <v>434774.7393444277</v>
       </c>
-      <c r="K4" t="n">
-        <v>434774.7393444278</v>
-      </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
         <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="F5" t="n">
         <v>24939.02968325745</v>
@@ -26488,7 +26488,7 @@
         <v>36042.87102508289</v>
       </c>
       <c r="I5" t="n">
-        <v>36042.87102508289</v>
+        <v>36042.8710250829</v>
       </c>
       <c r="J5" t="n">
         <v>47341.26675884315</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233228.897865076</v>
+        <v>-233233.305442224</v>
       </c>
       <c r="C6" t="n">
-        <v>-233228.8978650759</v>
+        <v>-233233.305442224</v>
       </c>
       <c r="D6" t="n">
-        <v>-233228.8978650759</v>
+        <v>-233233.3054422241</v>
       </c>
       <c r="E6" t="n">
-        <v>-443577.6673948503</v>
+        <v>-443866.1165117124</v>
       </c>
       <c r="F6" t="n">
-        <v>-159372.2830908511</v>
+        <v>-159660.7322077132</v>
       </c>
       <c r="G6" t="n">
         <v>-303376.566956047</v>
@@ -26546,22 +26546,22 @@
         <v>-384217.0066466688</v>
       </c>
       <c r="K6" t="n">
-        <v>-217592.1983034167</v>
+        <v>-217592.1983034165</v>
       </c>
       <c r="L6" t="n">
-        <v>-323256.2727358513</v>
+        <v>-323256.2727358514</v>
       </c>
       <c r="M6" t="n">
         <v>-229277.0078053827</v>
       </c>
       <c r="N6" t="n">
-        <v>-211581.3292417491</v>
+        <v>-211581.3292417493</v>
       </c>
       <c r="O6" t="n">
         <v>-282729.3494392575</v>
       </c>
       <c r="P6" t="n">
-        <v>-211581.3292417492</v>
+        <v>-211581.3292417493</v>
       </c>
     </row>
   </sheetData>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598807</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,31 +28114,31 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N11" t="n">
-        <v>144.19328690304</v>
+        <v>159.9096907126568</v>
       </c>
       <c r="O11" t="n">
         <v>149.2908438169257</v>
       </c>
       <c r="P11" t="n">
-        <v>214.0216543386118</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R11" t="n">
-        <v>182.2138048017995</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7140436393247</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28178,7 +28178,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>195.7350889274637</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.7848683666891</v>
@@ -28190,16 +28190,16 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>153.3774659142366</v>
       </c>
       <c r="K12" t="n">
-        <v>66.99970102305188</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175251</v>
+        <v>7.871300413713144</v>
       </c>
       <c r="N12" t="n">
         <v>66.06942948955188</v>
@@ -28211,10 +28211,10 @@
         <v>85.1122096929098</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -28254,7 +28254,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>215.371650161269</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -28269,22 +28269,22 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>178.0904440780981</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
-        <v>170.9697584578413</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>155.9742105034494</v>
+        <v>131.9614932450153</v>
       </c>
       <c r="M13" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
         <v>110.1177504068044</v>
@@ -28293,7 +28293,7 @@
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S13" t="n">
         <v>218.4500239600112</v>
@@ -28345,34 +28345,34 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
         <v>207.1089656766806</v>
       </c>
       <c r="K14" t="n">
-        <v>218.4500239600112</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>173.7817522265897</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>214.7658150514811</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O14" t="n">
-        <v>149.2908438169257</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>218.4500239600112</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>78.70359801967193</v>
       </c>
       <c r="R14" t="n">
-        <v>113.8687281338978</v>
+        <v>217.4480215829309</v>
       </c>
       <c r="S14" t="n">
         <v>195.7140436393247</v>
@@ -28433,16 +28433,16 @@
         <v>95.90842290065689</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346595</v>
+        <v>135.5688827973804</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N15" t="n">
-        <v>118.2982863334663</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P15" t="n">
         <v>85.1122096929098</v>
@@ -28497,28 +28497,28 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.689771139254</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H16" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>147.7494808688102</v>
+        <v>151.1583351011815</v>
       </c>
       <c r="J16" t="n">
-        <v>178.0904440780981</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>155.9742105034494</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O16" t="n">
         <v>175.148814504079</v>
@@ -28527,7 +28527,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.9853613927381</v>
+        <v>199.3823873808081</v>
       </c>
       <c r="R16" t="n">
         <v>164.4066131828346</v>
@@ -28579,13 +28579,13 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>187.3971738806255</v>
       </c>
       <c r="K17" t="n">
         <v>157.9234874142799</v>
@@ -28597,7 +28597,7 @@
         <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
-        <v>212.59031289111</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
         <v>149.2908438169257</v>
@@ -28606,16 +28606,16 @@
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.2769441226567</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S17" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
@@ -28673,13 +28673,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N18" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P18" t="n">
         <v>85.1122096929098</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O19" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28834,7 +28834,7 @@
         <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>187.8299012115365</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
         <v>149.2908438169257</v>
@@ -28843,16 +28843,16 @@
         <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241949</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S20" t="n">
-        <v>264.1110696273947</v>
+        <v>239.3506579478212</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
         <v>319.8391528055694</v>
@@ -28910,13 +28910,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N21" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P21" t="n">
         <v>85.1122096929098</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O22" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29053,13 +29053,13 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I23" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>207.1089656766806</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
         <v>157.9234874142799</v>
@@ -29083,19 +29083,19 @@
         <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>247.8473145883312</v>
+        <v>208.9021435157792</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U23" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29147,13 +29147,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N24" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P24" t="n">
         <v>85.1122096929098</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O25" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29299,31 +29299,31 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>107.3716888928285</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
-        <v>221.0151182874286</v>
+        <v>186.56673656434</v>
       </c>
       <c r="P26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.01220299920814</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29369,7 +29369,7 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H27" t="n">
-        <v>108.160635135932</v>
+        <v>152.5379635824868</v>
       </c>
       <c r="I27" t="n">
         <v>88.82825281985649</v>
@@ -29381,22 +29381,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>127.7173544000208</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N27" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P27" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>127.2394152081628</v>
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>149.1992642100006</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="G28" t="n">
         <v>167.689771139254</v>
@@ -29457,10 +29457,10 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>103.5229950487513</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
         <v>104.1302923698531</v>
@@ -29469,13 +29469,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>221.0151182874286</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.02868467987658</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
@@ -29530,7 +29530,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
         <v>221.0151182874286</v>
@@ -29539,7 +29539,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
-        <v>221.0151182874286</v>
+        <v>147.0261450538189</v>
       </c>
       <c r="M29" t="n">
         <v>221.0151182874286</v>
@@ -29551,16 +29551,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.3581669740055</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,10 +29609,10 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>128.9724488379266</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29627,16 +29627,16 @@
         <v>66.06942948955188</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P30" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.4354315864262</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>79.8968786043891</v>
+        <v>79.89687860438912</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29654,7 +29654,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -29691,28 +29691,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>74.71172711439591</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.9827492204772</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29779,10 +29779,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>177.1311791035951</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
@@ -29791,13 +29791,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.0151182874286</v>
+        <v>183.7204103361408</v>
       </c>
       <c r="R32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29849,28 +29849,28 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
         <v>95.90842290065689</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175251</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>110.4467579361068</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725115</v>
       </c>
       <c r="P33" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>133.881942907476</v>
       </c>
       <c r="R33" t="n">
         <v>127.2394152081628</v>
@@ -29891,7 +29891,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -29907,7 +29907,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>221.0151182874286</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29928,31 +29928,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>146.8497540217935</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6568624510924</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
         <v>218.8751278244474</v>
@@ -30025,13 +30025,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="P35" t="n">
-        <v>188.4382219307924</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>182.2138048017995</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
@@ -30083,34 +30083,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>85.29128280300968</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>28.26502879000195</v>
       </c>
       <c r="N36" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.0519101575529</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>79.89687860438912</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30165,22 +30165,22 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>207.3019781525518</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681482</v>
+        <v>191.5243943393384</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
@@ -30253,13 +30253,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M38" t="n">
-        <v>241.0721943278298</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
-        <v>144.19328690304</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O38" t="n">
-        <v>243.1347164919704</v>
+        <v>114.8163927784065</v>
       </c>
       <c r="P38" t="n">
         <v>243.1347164919704</v>
@@ -30323,31 +30323,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
         <v>95.90842290065689</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N39" t="n">
-        <v>73.0632365072334</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30359,7 +30359,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W39" t="n">
         <v>243.1347164919704</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.689771139254</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
@@ -30402,7 +30402,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
         <v>102.5727324697714</v>
@@ -30414,13 +30414,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>191.5243943393384</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
@@ -30429,7 +30429,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8751278244474</v>
+        <v>241.0387425342546</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30481,10 +30481,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K41" t="n">
-        <v>185.4303093602101</v>
+        <v>134.4295766700309</v>
       </c>
       <c r="L41" t="n">
         <v>243.1347164919704</v>
@@ -30569,16 +30569,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N42" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O42" t="n">
-        <v>89.31755892493265</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
@@ -30590,7 +30590,7 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T42" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U42" t="n">
         <v>224.641496683099</v>
@@ -30618,10 +30618,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>170.8159630162749</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30636,28 +30636,28 @@
         <v>159.857510195687</v>
       </c>
       <c r="I43" t="n">
-        <v>178.1894547784379</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
         <v>130.9853613927381</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>243.1347164919704</v>
+        <v>185.7233136128682</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30733,13 +30733,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>80.38284845145544</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="Q44" t="n">
-        <v>168.6434343361249</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919704</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>108.1424160880037</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>83.34002595346595</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175251</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.1122096929098</v>
+        <v>7.477927666940594</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>79.89687860438912</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30830,7 +30830,7 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U45" t="n">
-        <v>231.6353037007806</v>
+        <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -30858,7 +30858,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -30870,31 +30870,31 @@
         <v>167.689771139254</v>
       </c>
       <c r="H46" t="n">
-        <v>159.857510195687</v>
+        <v>163.3369202807595</v>
       </c>
       <c r="I46" t="n">
-        <v>243.1347164919704</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>104.0284278896841</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O46" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
         <v>130.9853613927381</v>
@@ -31765,7 +31765,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M11" t="n">
         <v>78.21878833317973</v>
@@ -31774,7 +31774,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P11" t="n">
         <v>64.05763120768638</v>
@@ -31789,7 +31789,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U11" t="n">
         <v>0.03563675904496592</v>
@@ -31835,7 +31835,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J12" t="n">
         <v>22.51807692967788</v>
@@ -31847,13 +31847,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N12" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P12" t="n">
         <v>45.51283753606219</v>
@@ -31865,10 +31865,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U12" t="n">
         <v>0.01568038410218506</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H13" t="n">
         <v>1.776561813229859</v>
@@ -31920,7 +31920,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L13" t="n">
         <v>29.7074559238866</v>
@@ -31932,22 +31932,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R13" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840405</v>
@@ -32002,7 +32002,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M14" t="n">
         <v>78.21878833317973</v>
@@ -32011,7 +32011,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P14" t="n">
         <v>64.05763120768638</v>
@@ -32026,7 +32026,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U14" t="n">
         <v>0.03563675904496592</v>
@@ -32072,7 +32072,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J15" t="n">
         <v>22.51807692967788</v>
@@ -32084,13 +32084,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N15" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P15" t="n">
         <v>45.51283753606219</v>
@@ -32102,10 +32102,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U15" t="n">
         <v>0.01568038410218506</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H16" t="n">
         <v>1.776561813229859</v>
@@ -32157,7 +32157,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L16" t="n">
         <v>29.7074559238866</v>
@@ -32169,22 +32169,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R16" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840405</v>
@@ -32239,7 +32239,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M17" t="n">
         <v>78.21878833317973</v>
@@ -32248,7 +32248,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P17" t="n">
         <v>64.05763120768638</v>
@@ -32263,7 +32263,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U17" t="n">
         <v>0.03563675904496592</v>
@@ -32309,7 +32309,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J18" t="n">
         <v>22.51807692967788</v>
@@ -32321,13 +32321,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N18" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P18" t="n">
         <v>45.51283753606219</v>
@@ -32339,10 +32339,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U18" t="n">
         <v>0.01568038410218506</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H19" t="n">
         <v>1.776561813229859</v>
@@ -32394,7 +32394,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L19" t="n">
         <v>29.7074559238866</v>
@@ -32406,22 +32406,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R19" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840405</v>
@@ -32476,7 +32476,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M20" t="n">
         <v>78.21878833317973</v>
@@ -32485,7 +32485,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P20" t="n">
         <v>64.05763120768638</v>
@@ -32500,7 +32500,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U20" t="n">
         <v>0.03563675904496592</v>
@@ -32546,7 +32546,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J21" t="n">
         <v>22.51807692967788</v>
@@ -32558,13 +32558,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N21" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P21" t="n">
         <v>45.51283753606219</v>
@@ -32576,10 +32576,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U21" t="n">
         <v>0.01568038410218506</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H22" t="n">
         <v>1.776561813229859</v>
@@ -32631,7 +32631,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L22" t="n">
         <v>29.7074559238866</v>
@@ -32643,22 +32643,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R22" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840405</v>
@@ -32713,7 +32713,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M23" t="n">
         <v>78.21878833317973</v>
@@ -32722,7 +32722,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P23" t="n">
         <v>64.05763120768638</v>
@@ -32737,7 +32737,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U23" t="n">
         <v>0.03563675904496592</v>
@@ -32783,7 +32783,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J24" t="n">
         <v>22.51807692967788</v>
@@ -32795,13 +32795,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N24" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P24" t="n">
         <v>45.51283753606219</v>
@@ -32813,10 +32813,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U24" t="n">
         <v>0.01568038410218506</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H25" t="n">
         <v>1.776561813229859</v>
@@ -32868,7 +32868,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L25" t="n">
         <v>29.7074559238866</v>
@@ -32880,22 +32880,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R25" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840405</v>
@@ -32950,7 +32950,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M26" t="n">
         <v>78.21878833317973</v>
@@ -32959,7 +32959,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P26" t="n">
         <v>64.05763120768638</v>
@@ -32974,7 +32974,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U26" t="n">
         <v>0.03563675904496592</v>
@@ -33020,7 +33020,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J27" t="n">
         <v>22.51807692967788</v>
@@ -33032,13 +33032,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N27" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P27" t="n">
         <v>45.51283753606219</v>
@@ -33050,10 +33050,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U27" t="n">
         <v>0.01568038410218506</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H28" t="n">
         <v>1.776561813229859</v>
@@ -33105,7 +33105,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L28" t="n">
         <v>29.7074559238866</v>
@@ -33117,22 +33117,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R28" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840405</v>
@@ -33187,7 +33187,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M29" t="n">
         <v>78.21878833317973</v>
@@ -33196,7 +33196,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P29" t="n">
         <v>64.05763120768638</v>
@@ -33211,7 +33211,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U29" t="n">
         <v>0.03563675904496592</v>
@@ -33257,7 +33257,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J30" t="n">
         <v>22.51807692967788</v>
@@ -33269,13 +33269,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N30" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P30" t="n">
         <v>45.51283753606219</v>
@@ -33287,10 +33287,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U30" t="n">
         <v>0.01568038410218506</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H31" t="n">
         <v>1.776561813229859</v>
@@ -33342,7 +33342,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L31" t="n">
         <v>29.7074559238866</v>
@@ -33354,22 +33354,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R31" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840405</v>
@@ -33424,7 +33424,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M32" t="n">
         <v>78.21878833317973</v>
@@ -33433,7 +33433,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P32" t="n">
         <v>64.05763120768638</v>
@@ -33448,7 +33448,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U32" t="n">
         <v>0.03563675904496592</v>
@@ -33494,7 +33494,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J33" t="n">
         <v>22.51807692967788</v>
@@ -33506,13 +33506,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N33" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P33" t="n">
         <v>45.51283753606219</v>
@@ -33524,10 +33524,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U33" t="n">
         <v>0.01568038410218506</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H34" t="n">
         <v>1.776561813229859</v>
@@ -33579,7 +33579,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L34" t="n">
         <v>29.7074559238866</v>
@@ -33591,22 +33591,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R34" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840405</v>
@@ -33661,7 +33661,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M35" t="n">
         <v>78.21878833317973</v>
@@ -33670,7 +33670,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P35" t="n">
         <v>64.05763120768638</v>
@@ -33685,7 +33685,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U35" t="n">
         <v>0.03563675904496592</v>
@@ -33731,7 +33731,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J36" t="n">
         <v>22.51807692967788</v>
@@ -33743,13 +33743,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N36" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P36" t="n">
         <v>45.51283753606219</v>
@@ -33761,10 +33761,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U36" t="n">
         <v>0.01568038410218506</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H37" t="n">
         <v>1.776561813229859</v>
@@ -33816,7 +33816,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L37" t="n">
         <v>29.7074559238866</v>
@@ -33828,22 +33828,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R37" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840405</v>
@@ -33898,7 +33898,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M38" t="n">
         <v>78.21878833317973</v>
@@ -33907,7 +33907,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P38" t="n">
         <v>64.05763120768638</v>
@@ -33922,7 +33922,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U38" t="n">
         <v>0.03563675904496592</v>
@@ -33968,7 +33968,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J39" t="n">
         <v>22.51807692967788</v>
@@ -33980,13 +33980,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N39" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P39" t="n">
         <v>45.51283753606219</v>
@@ -33998,10 +33998,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U39" t="n">
         <v>0.01568038410218506</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H40" t="n">
         <v>1.776561813229859</v>
@@ -34053,7 +34053,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L40" t="n">
         <v>29.7074559238866</v>
@@ -34065,22 +34065,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R40" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840405</v>
@@ -34135,7 +34135,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M41" t="n">
         <v>78.21878833317973</v>
@@ -34144,7 +34144,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P41" t="n">
         <v>64.05763120768638</v>
@@ -34159,7 +34159,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U41" t="n">
         <v>0.03563675904496592</v>
@@ -34205,7 +34205,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J42" t="n">
         <v>22.51807692967788</v>
@@ -34217,13 +34217,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N42" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P42" t="n">
         <v>45.51283753606219</v>
@@ -34235,10 +34235,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U42" t="n">
         <v>0.01568038410218506</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H43" t="n">
         <v>1.776561813229859</v>
@@ -34290,7 +34290,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L43" t="n">
         <v>29.7074559238866</v>
@@ -34302,22 +34302,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R43" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840405</v>
@@ -34372,7 +34372,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235581</v>
       </c>
       <c r="M44" t="n">
         <v>78.21878833317973</v>
@@ -34381,7 +34381,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921884</v>
       </c>
       <c r="P44" t="n">
         <v>64.05763120768638</v>
@@ -34396,7 +34396,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991731</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U44" t="n">
         <v>0.03563675904496592</v>
@@ -34442,7 +34442,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143512</v>
+        <v>8.20606768014351</v>
       </c>
       <c r="J45" t="n">
         <v>22.51807692967788</v>
@@ -34454,13 +34454,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221535</v>
       </c>
       <c r="N45" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608216</v>
       </c>
       <c r="P45" t="n">
         <v>45.51283753606219</v>
@@ -34472,10 +34472,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516909</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938704</v>
       </c>
       <c r="U45" t="n">
         <v>0.01568038410218506</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H46" t="n">
         <v>1.776561813229859</v>
@@ -34527,7 +34527,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L46" t="n">
         <v>29.7074559238866</v>
@@ -34539,22 +34539,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453766</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R46" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583157</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840405</v>
@@ -35410,31 +35410,31 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60.52653654573131</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662951</v>
+        <v>58.87461752662949</v>
       </c>
       <c r="M11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>15.71640380961679</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>52.62711468491037</v>
+        <v>57.05548430630982</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.80658962388632</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36.23621915821171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.73598032068653</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>52.22885684391438</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.22885684391439</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.36633246932743</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>54.16910705312868</v>
+        <v>30.15638979469463</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.04341077717666</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.39929300540035</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="K14" t="n">
-        <v>60.52653654573131</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.20634579320797</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630982</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.242169129352542</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>35.23421678113144</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>52.22885684391439</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52.22885684391438</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35793,22 +35793,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>50.76025282075725</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.40885423237128</v>
       </c>
       <c r="J16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>54.16910705312868</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35875,13 +35875,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>48.68523419201486</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.63350978653176</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>43.63661430849648</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="S20" t="n">
-        <v>68.39702598806993</v>
+        <v>43.63661430849652</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="V20" t="n">
         <v>21.99689547803524</v>
@@ -36349,13 +36349,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.63350978653175</v>
+        <v>26.68833871397964</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>68.39702598807</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598807</v>
       </c>
       <c r="U23" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598807</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>32.96438733281772</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881796</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>63.09163087314868</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>274.7922566990867</v>
+        <v>61.43971185404686</v>
       </c>
       <c r="M26" t="n">
-        <v>297.5354196754585</v>
+        <v>428.4969746619631</v>
       </c>
       <c r="N26" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438856</v>
       </c>
       <c r="O26" t="n">
         <v>433.3080812606695</v>
@@ -36613,13 +36613,13 @@
         <v>59.62057863372719</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562909</v>
+        <v>66.4293554289288</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36665,7 +36665,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>40.9314267967448</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.1936976954812225</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.85609687762411</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.717891598430557</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>114.2633297714196</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881796</v>
       </c>
       <c r="K29" t="n">
-        <v>334.8431193785625</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404688</v>
+        <v>421.8184017529055</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401742</v>
+        <v>164.6426766604656</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438856</v>
       </c>
       <c r="O29" t="n">
-        <v>71.72427447050291</v>
+        <v>71.72427447050289</v>
       </c>
       <c r="P29" t="n">
-        <v>173.2761168446405</v>
+        <v>59.62057863372719</v>
       </c>
       <c r="Q29" t="n">
-        <v>269.5223229241814</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562909</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>27.82383976760449</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36950,7 +36950,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>16.55348867895034</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>146.3033911730327</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>119.2100148371079</v>
+        <v>30.83543828855905</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.99738782773908</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,34 +37066,34 @@
         <v>32.96438733281769</v>
       </c>
       <c r="J32" t="n">
-        <v>82.30317859881794</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314865</v>
+        <v>400.20285994716</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404685</v>
+        <v>284.8945137988758</v>
       </c>
       <c r="M32" t="n">
-        <v>321.1252857691346</v>
+        <v>74.64632922401739</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438853</v>
       </c>
       <c r="O32" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050286</v>
       </c>
       <c r="P32" t="n">
-        <v>103.3654221177817</v>
+        <v>173.2761168446405</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.37168395130367</v>
+        <v>235.8845662863167</v>
       </c>
       <c r="R32" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810387</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>44.37732844655492</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.82383976760461</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>16.55348867895032</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.67856535622624</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>119.2100148371079</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>177.1388294615919</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.250249268257809</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>55.0839855373595</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>364.9110552725996</v>
+        <v>85.21122907769045</v>
       </c>
       <c r="L35" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858864</v>
       </c>
       <c r="M35" t="n">
-        <v>191.7109294292656</v>
+        <v>96.76592742855919</v>
       </c>
       <c r="N35" t="n">
         <v>98.94142958893033</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504468</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P35" t="n">
-        <v>27.04368227709101</v>
+        <v>225.4512739312895</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584548</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S35" t="n">
         <v>47.42067285264567</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>97.60856006252358</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>55.0839855373595</v>
       </c>
       <c r="J38" t="n">
-        <v>253.9311228308529</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769046</v>
+        <v>85.21122907769045</v>
       </c>
       <c r="L38" t="n">
-        <v>83.55931005858865</v>
+        <v>83.55931005858864</v>
       </c>
       <c r="M38" t="n">
-        <v>94.70340526441862</v>
+        <v>96.76592742855919</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>127.4011755006588</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9110552725996</v>
+        <v>361.5577374747359</v>
       </c>
       <c r="P38" t="n">
         <v>81.74017683826897</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421463</v>
+        <v>74.49128215584547</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017086</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S38" t="n">
         <v>47.42067285264567</v>
@@ -37631,31 +37631,31 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75.44494535271639</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>22.16361470980718</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>55.0839855373595</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033597</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>364.6180510199415</v>
+        <v>313.6173183297624</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858865</v>
+        <v>83.55931005858864</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855919</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="N41" t="n">
-        <v>359.9137748049572</v>
+        <v>98.94142958893033</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504468</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P41" t="n">
         <v>81.74017683826897</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584548</v>
+        <v>222.742009021371</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017086</v>
+        <v>60.92091169017085</v>
       </c>
       <c r="S41" t="n">
         <v>47.42067285264567</v>
@@ -37871,22 +37871,22 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>75.79816356076805</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>21.81039650175553</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>30.43997390962769</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>67.16858615289588</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>55.0839855373595</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769046</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858865</v>
+        <v>100.0330945750992</v>
       </c>
       <c r="M44" t="n">
-        <v>212.3864305862731</v>
+        <v>96.76592742855919</v>
       </c>
       <c r="N44" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893033</v>
       </c>
       <c r="O44" t="n">
-        <v>327.1241931477849</v>
+        <v>93.84387267504466</v>
       </c>
       <c r="P44" t="n">
         <v>81.74017683826897</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>74.49128215584547</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017086</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S44" t="n">
         <v>47.42067285264567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38126,7 +38126,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>94.12914997745102</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.479410085072552</v>
       </c>
       <c r="I46" t="n">
-        <v>95.38523562316018</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.223324439363397</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
